--- a/docs/PT1/PT1_24.07.24_output.xlsx
+++ b/docs/PT1/PT1_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,566 +505,672 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731005793.88887</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731005795.7568727</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731005793.88887.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731005795.7568727.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>6960.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>6968</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>7.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731005796.5996182</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731005796.9875803</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731005796.5996182.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731005796.9875803.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>6953</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>6966.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>13.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731005798.2214794</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731005799.4160705</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731005798.2214794.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731005799.4160705.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>6954</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>6958.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>4.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731005820.53242</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731005820.53242.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731005820.53242.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>1094.8</v>
       </c>
-      <c r="J6" t="n">
-        <v>1094.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="L6" t="n">
+        <v>1084.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-10.20000000000005</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731005848.4019966</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731005848.9892201</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731005848.4019966.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731005848.9892201.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>53.23</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>53.485</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.2550000000000026</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731005870.2931457</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731005870.2931457.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731005870.2931457.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>1464.4</v>
       </c>
-      <c r="J8" t="n">
-        <v>1464.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+      <c r="L8" t="n">
+        <v>1464.8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.3999999999998636</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731005886.931307</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731005890.0395112</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SELG1731005886.931307.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SELG1731005890.0395112.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>59.12</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>59.02</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731005896.2675414</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731005897.4150388</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731005896.2675414.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731005897.4150388.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>145.86</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>146</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731005897.7930195</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731005898.0124183</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731005897.7930195.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731005898.0124183.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>145.74</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>145.96</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731005898.191968</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731005899.2739239</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731005898.191968.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731005899.2739239.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>145.66</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>145.84</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731005908.846157</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731005912.1482067</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731005908.846157.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731005912.1482067.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>89.64</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.2399999999999949</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.27</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1087,6 +1208,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1100,6 +1236,15 @@
       <c r="C2" t="n">
         <v>3</v>
       </c>
+      <c r="D2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1113,6 +1258,15 @@
       <c r="C3" t="n">
         <v>3</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.1799999999999974</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1126,6 +1280,15 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="n">
+        <v>-0.2399999999999949</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1134,11 +1297,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.3999999999998636</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.3999999999998636</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1152,6 +1324,15 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.2550000000000026</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1160,11 +1341,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-10.20000000000005</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>-10.20000000000005</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.9299999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.93</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1178,6 +1368,15 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.09999999999999432</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.17</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1191,6 +1390,11 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
